--- a/Dokumentation/02_Zeitanalyse/Zeitanalyse.xlsx
+++ b/Dokumentation/02_Zeitanalyse/Zeitanalyse.xlsx
@@ -8,26 +8,101 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\Network-Unit-Testing\Dokumentation\02_Zeitanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699ED953-6698-4820-907F-45EAA32F3455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0329AA7-9D43-4CD6-B0B3-E865A32BC35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+  <si>
+    <t>Janik</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>Analyse 1</t>
+  </si>
+  <si>
+    <t>Analyse 2</t>
+  </si>
+  <si>
+    <t>Analyse 3</t>
+  </si>
+  <si>
+    <t>Design 1</t>
+  </si>
+  <si>
+    <t>Design 2</t>
+  </si>
+  <si>
+    <t>Design 3</t>
+  </si>
+  <si>
+    <t>Umsetzung 1</t>
+  </si>
+  <si>
+    <t>Umsetzung 2</t>
+  </si>
+  <si>
+    <t>Umsetzung 3</t>
+  </si>
+  <si>
+    <t>Umsetzung 4</t>
+  </si>
+  <si>
+    <t>Umsetzung 5</t>
+  </si>
+  <si>
+    <t>Umsetzung 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abschluss 1 </t>
+  </si>
+  <si>
+    <t>Abschluss 2</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Gemeinsam</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -72,6 +148,3315 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Janik Schlatter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$3:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Init</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analyse 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analyse 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Analyse 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Design 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Design 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Design 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Umsetzung 1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Umsetzung 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Umsetzung 3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Umsetzung 4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Umsetzung 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Umsetzung 6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Abschluss 1 </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Abschluss 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1455-4B9D-B766-6B7C0A6A9B64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="487919448"/>
+        <c:axId val="487924368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="487919448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487924368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="487924368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="487919448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Mike</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0"/>
+              <a:t> Schmid</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$E$3:$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Init</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analyse 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analyse 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Analyse 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Design 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Design 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Design 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Umsetzung 1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Umsetzung 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Umsetzung 3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Umsetzung 4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Umsetzung 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Umsetzung 6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Abschluss 1 </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Abschluss 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A45-4AA8-817B-B3949184129B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="477096240"/>
+        <c:axId val="482245568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="477096240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482245568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="482245568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="477096240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Janik Schlatter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$3:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Init</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analyse 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analyse 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Analyse 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Design 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Design 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Design 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Umsetzung 1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Umsetzung 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Umsetzung 3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Umsetzung 4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Umsetzung 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Umsetzung 6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Abschluss 1 </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Abschluss 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1BE-4222-B699-7ADDD6FA67E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mike Schmid</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-C1BE-4222-B699-7ADDD6FA67E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="293056584"/>
+        <c:axId val="293059208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="293056584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293059208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="293059208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Stunden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293056584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E431FA-EAF6-41B7-AD78-B749E01D0023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DEE1B0-94CD-496E-82D8-70AAA7069085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9C2E6B-2941-45FA-8188-568970BF31A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,14 +3722,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27:L29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>22.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>14.25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>C3+F3</f>
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>14.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J17" si="0">C4+F4</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>16.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>17.75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>21.75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>16.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>15.5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>16.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10.5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>18.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>18.5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>20.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>13.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>24.5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>6.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>4.5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>SUM(C3:C17)</f>
+        <v>249.25</v>
+      </c>
+      <c r="F18">
+        <f>SUM(F3:F17)</f>
+        <v>250.5</v>
+      </c>
+      <c r="J18">
+        <f>SUM(J3:J17)</f>
+        <v>499.75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>